--- a/Nelson GRAVEAU/Tableau concurrant pp45.xlsx
+++ b/Nelson GRAVEAU/Tableau concurrant pp45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelson\Documents\GitHub\SN2_SFL4Manitou_23\Nelson GRAVEAU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BF17186-3E62-42FB-B62A-1E489C489DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE06A95-5C71-4B7C-B1EF-466A05392B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{13CE86CE-D830-4741-8F26-49317392E8DB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Rockwell Automation</t>
   </si>
@@ -66,12 +66,6 @@
   </si>
   <si>
     <t>TP 177A</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>wiautomation.com</t>
   </si>
   <si>
     <t>Prix (HT)</t>
@@ -104,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -127,11 +121,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -139,7 +155,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -553,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AFAB47-3746-445E-BAF2-DFCA100D37E9}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -565,7 +588,7 @@
     <col min="2" max="3" width="31.88671875" customWidth="1"/>
     <col min="4" max="4" width="65.5546875" customWidth="1"/>
     <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -579,14 +602,12 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -597,12 +618,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>850</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -611,8 +630,8 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -621,8 +640,8 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -631,8 +650,8 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -641,8 +660,8 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -651,10 +670,22 @@
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="3">
+      <c r="E7" s="4">
         <v>400</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Nelson GRAVEAU/Tableau concurrant pp45.xlsx
+++ b/Nelson GRAVEAU/Tableau concurrant pp45.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelson\Documents\GitHub\SN2_SFL4Manitou_23\Nelson GRAVEAU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE06A95-5C71-4B7C-B1EF-466A05392B15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53A67D2-6A5D-4966-948B-B12CF1DF4E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{13CE86CE-D830-4741-8F26-49317392E8DB}"/>
+    <workbookView minimized="1" xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8964" xr2:uid="{13CE86CE-D830-4741-8F26-49317392E8DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Rockwell Automation</t>
   </si>
@@ -72,6 +72,21 @@
   </si>
   <si>
     <t>Caractéristiques</t>
+  </si>
+  <si>
+    <t>PP 45</t>
+  </si>
+  <si>
+    <t>Référence</t>
+  </si>
+  <si>
+    <t>6AV6642-0AA11-0AX1</t>
+  </si>
+  <si>
+    <t>4PP045.0571-062</t>
+  </si>
+  <si>
+    <t>AA057VF02</t>
   </si>
 </sst>
 </file>
@@ -147,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -161,7 +176,6 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -272,6 +286,65 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>130629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1571027</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1077686</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1" descr="Dalle LCD TFT 5.7&quot;, VGA, 640 x 480 pixels : AA057VF02">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54FA631-EC5A-C6AA-7A31-86B71A755DE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="30372" t="31187" r="30974" b="31387"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1959428" y="4898572"/>
+          <a:ext cx="972313" cy="947057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -576,22 +649,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AFAB47-3746-445E-BAF2-DFCA100D37E9}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="3" width="31.88671875" customWidth="1"/>
-    <col min="4" max="4" width="65.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="2" max="4" width="31.88671875" customWidth="1"/>
+    <col min="5" max="5" width="65.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -602,14 +675,17 @@
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6"/>
+      <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -617,75 +693,76 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="4">
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="4">
         <v>850</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="6"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="6"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="6"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="6"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="4">
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="4">
         <v>400</v>
       </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F11" s="5"/>
+      <c r="G7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Nelson GRAVEAU/Tableau concurrant pp45.xlsx
+++ b/Nelson GRAVEAU/Tableau concurrant pp45.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelson\Documents\GitHub\SN2_SFL4Manitou_23\Nelson GRAVEAU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53A67D2-6A5D-4966-948B-B12CF1DF4E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B98DB6-C8BF-4674-A360-5696F6F40334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8964" xr2:uid="{13CE86CE-D830-4741-8F26-49317392E8DB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{13CE86CE-D830-4741-8F26-49317392E8DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>Schneider Electric</t>
   </si>
   <si>
-    <t>Weintek</t>
-  </si>
-  <si>
     <t>Mitsubishi Electric</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>AA057VF02</t>
+  </si>
+  <si>
+    <t>PanelView Plus 6 Compact</t>
   </si>
 </sst>
 </file>
@@ -246,13 +246,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>566058</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>1132115</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1556658</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -294,13 +294,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>598714</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>130629</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1571027</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>1077686</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -331,6 +331,67 @@
         <a:xfrm>
           <a:off x="1959428" y="4898572"/>
           <a:ext cx="972313" cy="947057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>261259</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1937659</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1100958</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4" descr="PanelView-Plus-600-Moniteur compact">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE3498E4-49A5-190C-5C74-09407779AB1D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1621973" y="1491344"/>
+          <a:ext cx="1676400" cy="948557"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -649,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AFAB47-3746-445E-BAF2-DFCA100D37E9}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,35 +727,35 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="4">
@@ -706,8 +767,9 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="3"/>
@@ -724,45 +786,34 @@
       <c r="F4" s="3"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="3"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="3"/>
+      <c r="F6" s="4">
+        <v>400</v>
+      </c>
       <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="4">
-        <v>400</v>
-      </c>
-      <c r="G7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Nelson GRAVEAU/Tableau concurrant pp45.xlsx
+++ b/Nelson GRAVEAU/Tableau concurrant pp45.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelson\Documents\GitHub\SN2_SFL4Manitou_23\Nelson GRAVEAU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B98DB6-C8BF-4674-A360-5696F6F40334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704FCA6C-24D2-476F-B8ED-5A1828F41B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{13CE86CE-D830-4741-8F26-49317392E8DB}"/>
   </bookViews>
@@ -702,7 +702,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Nelson GRAVEAU/Tableau concurrant pp45.xlsx
+++ b/Nelson GRAVEAU/Tableau concurrant pp45.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelson\Documents\GitHub\SN2_SFL4Manitou_23\Nelson GRAVEAU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704FCA6C-24D2-476F-B8ED-5A1828F41B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DE2AAA-BB23-4619-A38B-8A9432341DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{13CE86CE-D830-4741-8F26-49317392E8DB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{13CE86CE-D830-4741-8F26-49317392E8DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Rockwell Automation</t>
   </si>
@@ -83,20 +83,248 @@
     <t>4PP045.0571-062</t>
   </si>
   <si>
-    <t>AA057VF02</t>
-  </si>
-  <si>
-    <t>PanelView Plus 6 Compact</t>
+    <t>XBTGC2330T</t>
+  </si>
+  <si>
+    <t>Magelis, 5.7 TFT Color Controller Panel source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2711PC-T6C20D8 </t>
+  </si>
+  <si>
+    <t>2711PC PanelView Plus 6 Compact Terminals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GT2705-VTBD </t>
+  </si>
+  <si>
+    <r>
+      <t>Processeur 32 bits intégré de type SH2A-FPU 
+Flash ROM : 1 Mo 
+RAM : 64 Mo
+Port :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> USB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> x 3, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Eth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> x 1, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RS-232</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> x 1, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RS-422/485</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> x 1
+Diagonales : 5,7 pouces	
+résolution : 640 x 480 px
+Dimensions (L x H x P) : 144 x 144 x 53,5 mm
+couleurs : 65536  
+Type d'affichage : TFT  
+Poids : environ 450g
+Protection : IP67F</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Processeur : ELaN SC520 | 100 MHz
+DRAM : 64MB
+SRaM : 32 KB 
+Port : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>USB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> x 2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Eth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>X2X Link Maste</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">r </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Diagonale : 5,7 Pouces
+résolutions : 320 x 240 px (QVGA)
+Dimensions (L x H x P): 203 x 145 x 55 mm
+Couleurs : 256
+Type d'affichage : LCD
+Poids :environ 500 g
+Protection : IP65 (face avant) / IP20 (panneau arriere)</t>
+    </r>
+  </si>
+  <si>
+    <t>Processeur : CPU RISC, 131 MHz
+Diagonales : 5,7 pouces
+résolution : 320 x 240 px QVGA
+Dimensions (L x H x P) : 167,4 x 135 x 77,6 mm
+Couleurs : 65 000 
+Type d'affichage : LCD, TFT
+Poids : 1000 g
+Protection : IP65 (face avant) / IP20 (panneau arriere)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,13 +332,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -162,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -170,13 +435,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -201,15 +490,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>489857</xdr:colOff>
+      <xdr:colOff>185058</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>131654</xdr:rowOff>
+      <xdr:rowOff>534425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1719162</xdr:colOff>
+      <xdr:colOff>2040300</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1039813</xdr:rowOff>
+      <xdr:rowOff>1905000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -232,8 +521,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1850571" y="327597"/>
-          <a:ext cx="1229305" cy="908159"/>
+          <a:off x="1545772" y="730368"/>
+          <a:ext cx="1855242" cy="1370575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -244,16 +533,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>566058</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1331027</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1132115</xdr:rowOff>
+      <xdr:rowOff>2002971</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1556658</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198911</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -280,8 +569,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1926772" y="5900058"/>
-          <a:ext cx="990600" cy="1317171"/>
+          <a:off x="1331027" y="9068789"/>
+          <a:ext cx="2414648" cy="3059875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -292,23 +581,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>598714</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>130629</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>937043</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1571027</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1077686</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504937</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2144486</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1" descr="Dalle LCD TFT 5.7&quot;, VGA, 640 x 480 pixels : AA057VF02">
+        <xdr:cNvPr id="5" name="Image 4" descr="PanelView-Plus-600-Moniteur compact">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B54FA631-EC5A-C6AA-7A31-86B71A755DE5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE3498E4-49A5-190C-5C74-09407779AB1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -316,21 +605,23 @@
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="30372" t="31187" r="30974" b="31387"/>
-        <a:stretch/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1959428" y="4898572"/>
-          <a:ext cx="972313" cy="947057"/>
+          <a:off x="937043" y="2873829"/>
+          <a:ext cx="3116637" cy="1763486"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -352,22 +643,81 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>261259</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:colOff>195943</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>381000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1937659</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>1100958</xdr:rowOff>
+      <xdr:colOff>1992086</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1905000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 4" descr="PanelView-Plus-600-Moniteur compact">
+        <xdr:cNvPr id="6" name="Image 5" descr="XBTGC2330T - Magelis, 5.7 TFT Color Controller Panel source -  Professionnels | Schneider Electric France">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE3498E4-49A5-190C-5C74-09407779AB1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF51F53F-69F8-0DEB-E4EB-63C4B9CCFA9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="7036" t="15447" r="10031" b="20325"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1556657" y="5159829"/>
+          <a:ext cx="1796143" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>65316</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>174037</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2130334</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2179318</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Image 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15A1DBD6-A203-0892-ADA6-8A5C68FB489A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -376,7 +726,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -390,8 +740,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1621973" y="1491344"/>
-          <a:ext cx="1676400" cy="948557"/>
+          <a:off x="1426030" y="7238866"/>
+          <a:ext cx="2065018" cy="2005281"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -710,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AFAB47-3746-445E-BAF2-DFCA100D37E9}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -725,95 +1075,116 @@
     <col min="7" max="7" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="5"/>
+      <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" ht="180.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="4">
+      <c r="E2" s="9"/>
+      <c r="F2" s="11">
         <v>850</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="12">
+        <v>2600</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="5"/>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="12">
+        <v>1465.56</v>
+      </c>
+      <c r="G4" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="5"/>
+    <row r="5" spans="1:9" ht="179.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1">
+        <v>288037</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="13">
+        <v>1409.54</v>
+      </c>
+      <c r="G5" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="90.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:9" ht="180.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="4">
+      <c r="E6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="11">
         <v>400</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="3"/>
+      <c r="I6" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Nelson GRAVEAU/Tableau concurrant pp45.xlsx
+++ b/Nelson GRAVEAU/Tableau concurrant pp45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelson\Documents\GitHub\SN2_SFL4Manitou_23\Nelson GRAVEAU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98DE2AAA-BB23-4619-A38B-8A9432341DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5046793D-6D4F-4AF2-BA09-6E45D6BBBFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{13CE86CE-D830-4741-8F26-49317392E8DB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Rockwell Automation</t>
   </si>
@@ -314,6 +314,9 @@
 Type d'affichage : LCD, TFT
 Poids : 1000 g
 Protection : IP65 (face avant) / IP20 (panneau arriere)</t>
+  </si>
+  <si>
+    <t>processeur : de 350 MHz à 1 GHz</t>
   </si>
 </sst>
 </file>
@@ -1063,7 +1066,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1123,7 +1126,9 @@
       <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>23</v>
+      </c>
       <c r="F3" s="12">
         <v>2600</v>
       </c>

--- a/Nelson GRAVEAU/Tableau concurrant pp45.xlsx
+++ b/Nelson GRAVEAU/Tableau concurrant pp45.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelson\Documents\GitHub\SN2_SFL4Manitou_23\Nelson GRAVEAU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5046793D-6D4F-4AF2-BA09-6E45D6BBBFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A676C5-02A7-445E-B826-B258AC4AE33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{13CE86CE-D830-4741-8F26-49317392E8DB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Rockwell Automation</t>
   </si>
@@ -316,17 +316,32 @@
 Protection : IP65 (face avant) / IP20 (panneau arriere)</t>
   </si>
   <si>
-    <t>processeur : de 350 MHz à 1 GHz</t>
+    <t>processeur : de 350 MHz à 1 GHz
+RAM: 256 MB 
+Diagonales : 5,7 pouces
+résolution : 320 x 240px
+Dimensions (L x H x P) : 185 x 152 x 68mm
+Couleurs : N/A
+Type d'affichage : TFT
+Poids : 594
+Protection :	IP66 (face avant)</t>
+  </si>
+  <si>
+    <t>processeur : MRA
+Flash / RAM : 512 kbyte
+Diagonales : 5,7 pouces
+résolution : 320 x 240px
+Dimensions (L x H x P) : 212 x 156 x 44 mm 
+Couleurs : 2
+Type d'affichage : LCD
+Poids : 0,75 kg
+Protection : IP65 (face avant) / IP20 (panneau arriere)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
-    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -430,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -457,18 +472,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1065,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AFAB47-3746-445E-BAF2-DFCA100D37E9}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1074,7 +1080,7 @@
     <col min="1" max="1" width="19.88671875" customWidth="1"/>
     <col min="2" max="4" width="31.88671875" customWidth="1"/>
     <col min="5" max="5" width="65.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
     <col min="7" max="7" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1110,8 +1116,10 @@
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="11">
+      <c r="E2" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="10">
         <v>850</v>
       </c>
       <c r="G2" s="3"/>
@@ -1129,7 +1137,7 @@
       <c r="E3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="10">
         <v>2600</v>
       </c>
       <c r="G3" s="3"/>
@@ -1145,10 +1153,10 @@
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="10">
         <v>1465.56</v>
       </c>
       <c r="G4" s="3"/>
@@ -1163,10 +1171,10 @@
       <c r="D5" s="1">
         <v>288037</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="10">
         <v>1409.54</v>
       </c>
       <c r="G5" s="3"/>
@@ -1182,10 +1190,10 @@
       <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>400</v>
       </c>
       <c r="G6" s="3"/>

--- a/Nelson GRAVEAU/Tableau concurrant pp45.xlsx
+++ b/Nelson GRAVEAU/Tableau concurrant pp45.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelson\Documents\GitHub\SN2_SFL4Manitou_23\Nelson GRAVEAU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngrav\Documents\GitHub\SN2_SFL4Manitou_23\Nelson GRAVEAU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A676C5-02A7-445E-B826-B258AC4AE33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8927AE42-918F-4E05-A051-19301937BB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{13CE86CE-D830-4741-8F26-49317392E8DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{13CE86CE-D830-4741-8F26-49317392E8DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -38,15 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
-    <t>Rockwell Automation</t>
-  </si>
-  <si>
-    <t>Schneider Electric</t>
-  </si>
-  <si>
-    <t>Mitsubishi Electric</t>
-  </si>
-  <si>
     <t>Siemens</t>
   </si>
   <si>
@@ -336,6 +327,18 @@
 Type d'affichage : LCD
 Poids : 0,75 kg
 Protection : IP65 (face avant) / IP20 (panneau arriere)</t>
+  </si>
+  <si>
+    <t>Rockwell
+ Automation</t>
+  </si>
+  <si>
+    <t>Schneider 
+Electric</t>
+  </si>
+  <si>
+    <t>Mitsubishi
+ Electric</t>
   </si>
 </sst>
 </file>
@@ -499,15 +502,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>185058</xdr:colOff>
+      <xdr:colOff>70758</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>534425</xdr:rowOff>
+      <xdr:rowOff>1039250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2040300</xdr:colOff>
+      <xdr:colOff>804286</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1905000</xdr:rowOff>
+      <xdr:rowOff>1581150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -530,8 +533,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1545772" y="730368"/>
-          <a:ext cx="1855242" cy="1370575"/>
+          <a:off x="899433" y="1229750"/>
+          <a:ext cx="733528" cy="541900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -542,16 +545,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1331027</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2002971</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>666750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>198911</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>130628</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>819151</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1552576</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -564,7 +567,7 @@
         </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -572,14 +575,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="3567" t="9703" r="8911" b="13255"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1331027" y="9068789"/>
-          <a:ext cx="2414648" cy="3059875"/>
+          <a:off x="885826" y="10782300"/>
+          <a:ext cx="762000" cy="885826"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -590,16 +592,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>937043</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>704851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>504937</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>2144486</xdr:rowOff>
+      <xdr:rowOff>1333500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -614,7 +616,7 @@
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
+      <xdr:blipFill rotWithShape="1">
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -622,15 +624,13 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect l="12070" r="13512"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="937043" y="2873829"/>
-          <a:ext cx="3116637" cy="1763486"/>
+          <a:off x="838200" y="3305176"/>
+          <a:ext cx="800100" cy="628649"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -652,15 +652,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>195943</xdr:colOff>
+      <xdr:colOff>43543</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>381000</xdr:rowOff>
+      <xdr:rowOff>819150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1992086</xdr:colOff>
+      <xdr:colOff>828675</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1905000</xdr:rowOff>
+      <xdr:rowOff>1485323</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -688,8 +688,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1556657" y="5159829"/>
-          <a:ext cx="1796143" cy="1524000"/>
+          <a:off x="872218" y="5610225"/>
+          <a:ext cx="785132" cy="666173"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -711,15 +711,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>65316</xdr:colOff>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>174037</xdr:rowOff>
+      <xdr:rowOff>1115793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2130334</xdr:colOff>
+      <xdr:colOff>816012</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2179318</xdr:rowOff>
+      <xdr:rowOff>1800364</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -749,8 +749,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1426030" y="7238866"/>
-          <a:ext cx="2065018" cy="2005281"/>
+          <a:off x="942975" y="8221443"/>
+          <a:ext cx="701712" cy="684571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1061,7 +1061,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1071,127 +1071,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AFAB47-3746-445E-BAF2-DFCA100D37E9}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
-    <col min="2" max="4" width="31.88671875" customWidth="1"/>
-    <col min="5" max="5" width="65.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="180.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F2" s="10">
         <v>850</v>
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>0</v>
+    <row r="3" spans="1:9" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F3" s="10">
         <v>2600</v>
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>1</v>
+    <row r="4" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F4" s="10">
         <v>1465.56</v>
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="179.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>2</v>
+    <row r="5" spans="1:9" ht="237" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1">
         <v>288037</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F5" s="10">
         <v>1409.54</v>
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="180.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="210" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E6" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" s="10">
         <v>400</v>

--- a/Nelson GRAVEAU/Tableau concurrant pp45.xlsx
+++ b/Nelson GRAVEAU/Tableau concurrant pp45.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngrav\Documents\GitHub\SN2_SFL4Manitou_23\Nelson GRAVEAU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelson\Documents\GitHub\SN2_SFL4Manitou_23\Nelson GRAVEAU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8927AE42-918F-4E05-A051-19301937BB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A676C5-02A7-445E-B826-B258AC4AE33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{13CE86CE-D830-4741-8F26-49317392E8DB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{13CE86CE-D830-4741-8F26-49317392E8DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,15 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
+    <t>Rockwell Automation</t>
+  </si>
+  <si>
+    <t>Schneider Electric</t>
+  </si>
+  <si>
+    <t>Mitsubishi Electric</t>
+  </si>
+  <si>
     <t>Siemens</t>
   </si>
   <si>
@@ -327,18 +336,6 @@
 Type d'affichage : LCD
 Poids : 0,75 kg
 Protection : IP65 (face avant) / IP20 (panneau arriere)</t>
-  </si>
-  <si>
-    <t>Rockwell
- Automation</t>
-  </si>
-  <si>
-    <t>Schneider 
-Electric</t>
-  </si>
-  <si>
-    <t>Mitsubishi
- Electric</t>
   </si>
 </sst>
 </file>
@@ -502,15 +499,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>70758</xdr:colOff>
+      <xdr:colOff>185058</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1039250</xdr:rowOff>
+      <xdr:rowOff>534425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>804286</xdr:colOff>
+      <xdr:colOff>2040300</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1581150</xdr:rowOff>
+      <xdr:rowOff>1905000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -533,8 +530,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="899433" y="1229750"/>
-          <a:ext cx="733528" cy="541900"/>
+          <a:off x="1545772" y="730368"/>
+          <a:ext cx="1855242" cy="1370575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -545,16 +542,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>57151</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>666750</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1331027</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2002971</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>819151</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1552576</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198911</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -567,7 +564,7 @@
         </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -575,13 +572,14 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="3567" t="9703" r="8911" b="13255"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="885826" y="10782300"/>
-          <a:ext cx="762000" cy="885826"/>
+          <a:off x="1331027" y="9068789"/>
+          <a:ext cx="2414648" cy="3059875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -592,16 +590,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>937043</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>704851</xdr:rowOff>
+      <xdr:rowOff>381000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504937</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1333500</xdr:rowOff>
+      <xdr:rowOff>2144486</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -616,7 +614,7 @@
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
+      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -624,13 +622,15 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect l="12070" r="13512"/>
-        <a:stretch/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="838200" y="3305176"/>
-          <a:ext cx="800100" cy="628649"/>
+          <a:off x="937043" y="2873829"/>
+          <a:ext cx="3116637" cy="1763486"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -652,15 +652,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>43543</xdr:colOff>
+      <xdr:colOff>195943</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>819150</xdr:rowOff>
+      <xdr:rowOff>381000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
+      <xdr:colOff>1992086</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1485323</xdr:rowOff>
+      <xdr:rowOff>1905000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -688,8 +688,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="872218" y="5610225"/>
-          <a:ext cx="785132" cy="666173"/>
+          <a:off x="1556657" y="5159829"/>
+          <a:ext cx="1796143" cy="1524000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -711,15 +711,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>65316</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1115793</xdr:rowOff>
+      <xdr:rowOff>174037</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>816012</xdr:colOff>
+      <xdr:colOff>2130334</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1800364</xdr:rowOff>
+      <xdr:rowOff>2179318</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -749,8 +749,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="942975" y="8221443"/>
-          <a:ext cx="701712" cy="684571"/>
+          <a:off x="1426030" y="7238866"/>
+          <a:ext cx="2065018" cy="2005281"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1061,7 +1061,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1071,129 +1071,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AFAB47-3746-445E-BAF2-DFCA100D37E9}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="2" max="4" width="31.88671875" customWidth="1"/>
+    <col min="5" max="5" width="65.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:9" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="180.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F2" s="10">
         <v>850</v>
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>22</v>
+    <row r="3" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F3" s="10">
         <v>2600</v>
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>23</v>
+    <row r="4" spans="1:9" ht="180" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F4" s="10">
         <v>1465.56</v>
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="237" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>24</v>
+    <row r="5" spans="1:9" ht="179.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1">
         <v>288037</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5" s="10">
         <v>1409.54</v>
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="180.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F6" s="10">
         <v>400</v>
